--- a/deployment/isparmo_database_sample.xlsx
+++ b/deployment/isparmo_database_sample.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,11 @@
           <t>Password</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -540,6 +545,11 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>123456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin@example.com</t>
         </is>
       </c>
     </row>
